--- a/ExcelData/CSC_StateDistAndCenterName.xlsx
+++ b/ExcelData/CSC_StateDistAndCenterName.xlsx
@@ -7888,9 +7888,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7910,354 +7912,354 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="0">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n" s="0">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n" s="0">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n" s="0">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="0">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="0">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="0">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="0">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n" s="0">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n" s="0">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="0">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="0">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n" s="0">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="0">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="0">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="0">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="0">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="0">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="0">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="0">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="0">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="0">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="0">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="0">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="0">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="0">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="0">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="0">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="0">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="0">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="0">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="0">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="0">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="0">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="0">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="0">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="0">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="0">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="0">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="0">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n" s="0">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n" s="0">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n" s="0">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n" s="0">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n" s="0">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="0">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n" s="0">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n" s="0">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n" s="0">
-        <v>70.0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="72">
@@ -8283,6 +8285,61 @@
     <row r="76">
       <c r="A76" t="n" s="0">
         <v>75.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="0">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="0">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="0">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="0">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="0">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="0">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="0">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="0">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="0">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="0">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="0">
+        <v>86.0</v>
       </c>
     </row>
   </sheetData>
